--- a/Resources/Draft_Players.xlsx
+++ b/Resources/Draft_Players.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/s.w.d./Project-Dream_Team/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/s.w.d./Project-Dream_Team/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{4E62C134-EC05-A04D-8F4C-BB59301786BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC431327-B6D2-994C-A9FE-127865759A23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16540"/>
+    <workbookView xWindow="-21600" yWindow="-8500" windowWidth="21600" windowHeight="37940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Draft_Players" sheetId="1" r:id="rId1"/>
@@ -2509,7 +2509,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2987,8 +2987,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3343,11 +3344,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD256"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W256" sqref="W256"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="G156" sqref="G156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3357,7 +3358,7 @@
     <col min="3" max="3" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.33203125" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.33203125" bestFit="1" customWidth="1"/>
@@ -3402,7 +3403,7 @@
       <c r="F1" t="s">
         <v>414</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H1" t="s">
@@ -3494,7 +3495,7 @@
       <c r="F2" t="s">
         <v>429</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H2">
@@ -3586,7 +3587,7 @@
       <c r="F3" t="s">
         <v>431</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H3">
@@ -3678,7 +3679,7 @@
       <c r="F4" t="s">
         <v>433</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H4">
@@ -3770,7 +3771,7 @@
       <c r="F5" t="s">
         <v>434</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H5">
@@ -3862,7 +3863,7 @@
       <c r="F6" t="s">
         <v>435</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="1" t="s">
         <v>43</v>
       </c>
       <c r="H6">
@@ -3954,7 +3955,7 @@
       <c r="F7" t="s">
         <v>437</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="1" t="s">
         <v>47</v>
       </c>
       <c r="H7">
@@ -4046,7 +4047,7 @@
       <c r="F8" t="s">
         <v>439</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="1" t="s">
         <v>51</v>
       </c>
       <c r="H8">
@@ -4138,7 +4139,7 @@
       <c r="F9" t="s">
         <v>441</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="1" t="s">
         <v>51</v>
       </c>
       <c r="H9">
@@ -4230,7 +4231,7 @@
       <c r="F10" t="s">
         <v>443</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="1" t="s">
         <v>43</v>
       </c>
       <c r="H10">
@@ -4322,7 +4323,7 @@
       <c r="F11" t="s">
         <v>445</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H11">
@@ -4414,7 +4415,7 @@
       <c r="F12" t="s">
         <v>447</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H12">
@@ -4506,7 +4507,7 @@
       <c r="F13" t="s">
         <v>449</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="1" t="s">
         <v>64</v>
       </c>
       <c r="H13">
@@ -4598,7 +4599,7 @@
       <c r="F14" t="s">
         <v>451</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H14">
@@ -4690,7 +4691,7 @@
       <c r="F15" t="s">
         <v>453</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="1" t="s">
         <v>64</v>
       </c>
       <c r="H15">
@@ -4782,7 +4783,7 @@
       <c r="F16" t="s">
         <v>455</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="1" t="s">
         <v>51</v>
       </c>
       <c r="H16">
@@ -4874,7 +4875,7 @@
       <c r="F17" t="s">
         <v>457</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="1" t="s">
         <v>51</v>
       </c>
       <c r="H17">
@@ -4966,7 +4967,7 @@
       <c r="F18" t="s">
         <v>459</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="1" t="s">
         <v>43</v>
       </c>
       <c r="H18">
@@ -5058,7 +5059,7 @@
       <c r="F19" t="s">
         <v>461</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="1" t="s">
         <v>43</v>
       </c>
       <c r="H19">
@@ -5150,7 +5151,7 @@
       <c r="F20" t="s">
         <v>463</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="1" t="s">
         <v>51</v>
       </c>
       <c r="H20">
@@ -5242,7 +5243,7 @@
       <c r="F21" t="s">
         <v>465</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H21">
@@ -5334,7 +5335,7 @@
       <c r="F22" t="s">
         <v>467</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H22">
@@ -5426,7 +5427,7 @@
       <c r="F23" t="s">
         <v>469</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H23">
@@ -5518,7 +5519,7 @@
       <c r="F24" t="s">
         <v>471</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="1" t="s">
         <v>92</v>
       </c>
       <c r="H24">
@@ -5610,7 +5611,7 @@
       <c r="F25" t="s">
         <v>471</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="1" t="s">
         <v>51</v>
       </c>
       <c r="H25">
@@ -5702,7 +5703,7 @@
       <c r="F26" t="s">
         <v>474</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="1" t="s">
         <v>99</v>
       </c>
       <c r="H26">
@@ -5794,7 +5795,7 @@
       <c r="F27" t="s">
         <v>476</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="1" t="s">
         <v>64</v>
       </c>
       <c r="H27">
@@ -5886,7 +5887,7 @@
       <c r="F28" t="s">
         <v>429</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H28">
@@ -5978,7 +5979,7 @@
       <c r="F29" t="s">
         <v>479</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="1" t="s">
         <v>47</v>
       </c>
       <c r="H29">
@@ -6070,7 +6071,7 @@
       <c r="F30" t="s">
         <v>481</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="1" t="s">
         <v>108</v>
       </c>
       <c r="H30">
@@ -6162,7 +6163,7 @@
       <c r="F31" t="s">
         <v>482</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H31">
@@ -6254,7 +6255,7 @@
       <c r="F32" t="s">
         <v>484</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="1" t="s">
         <v>51</v>
       </c>
       <c r="H32">
@@ -6346,7 +6347,7 @@
       <c r="F33" t="s">
         <v>486</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H33">
@@ -6438,7 +6439,7 @@
       <c r="F34" t="s">
         <v>488</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="1" t="s">
         <v>43</v>
       </c>
       <c r="H34">
@@ -6530,7 +6531,7 @@
       <c r="F35" t="s">
         <v>489</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="1" t="s">
         <v>43</v>
       </c>
       <c r="H35">
@@ -6622,7 +6623,7 @@
       <c r="F36" t="s">
         <v>491</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="1" t="s">
         <v>43</v>
       </c>
       <c r="H36">
@@ -6714,7 +6715,7 @@
       <c r="F37" t="s">
         <v>489</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="1" t="s">
         <v>99</v>
       </c>
       <c r="H37">
@@ -6806,7 +6807,7 @@
       <c r="F38" t="s">
         <v>429</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="1" t="s">
         <v>51</v>
       </c>
       <c r="H38">
@@ -6898,7 +6899,7 @@
       <c r="F39" t="s">
         <v>352</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="1" t="s">
         <v>43</v>
       </c>
       <c r="H39">
@@ -6990,7 +6991,7 @@
       <c r="F40" t="s">
         <v>495</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H40">
@@ -7082,7 +7083,7 @@
       <c r="F41" t="s">
         <v>497</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="1" t="s">
         <v>51</v>
       </c>
       <c r="H41">
@@ -7174,7 +7175,7 @@
       <c r="F42" t="s">
         <v>499</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" s="1" t="s">
         <v>92</v>
       </c>
       <c r="H42">
@@ -7266,7 +7267,7 @@
       <c r="F43" t="s">
         <v>501</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" s="1" t="s">
         <v>51</v>
       </c>
       <c r="H43">
@@ -7358,7 +7359,7 @@
       <c r="F44" t="s">
         <v>503</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="1" t="s">
         <v>51</v>
       </c>
       <c r="H44">
@@ -7450,7 +7451,7 @@
       <c r="F45" t="s">
         <v>505</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" s="1" t="s">
         <v>99</v>
       </c>
       <c r="H45">
@@ -7542,7 +7543,7 @@
       <c r="F46" t="s">
         <v>507</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H46">
@@ -7634,7 +7635,7 @@
       <c r="F47" t="s">
         <v>509</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" s="1" t="s">
         <v>47</v>
       </c>
       <c r="H47">
@@ -7726,7 +7727,7 @@
       <c r="F48" t="s">
         <v>511</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H48">
@@ -7818,7 +7819,7 @@
       <c r="F49" t="s">
         <v>513</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" s="1" t="s">
         <v>51</v>
       </c>
       <c r="H49">
@@ -7910,7 +7911,7 @@
       <c r="F50" t="s">
         <v>515</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H50">
@@ -8002,7 +8003,7 @@
       <c r="F51" t="s">
         <v>517</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H51">
@@ -8094,7 +8095,7 @@
       <c r="F52" t="s">
         <v>519</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" s="1" t="s">
         <v>108</v>
       </c>
       <c r="H52">
@@ -8186,7 +8187,7 @@
       <c r="F53" t="s">
         <v>484</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G53" s="1" t="s">
         <v>99</v>
       </c>
       <c r="H53">
@@ -8278,7 +8279,7 @@
       <c r="F54" t="s">
         <v>522</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="H54">
@@ -8370,7 +8371,7 @@
       <c r="F55" t="s">
         <v>524</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55" s="1" t="s">
         <v>51</v>
       </c>
       <c r="H55">
@@ -8462,7 +8463,7 @@
       <c r="F56" t="s">
         <v>526</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G56" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H56">
@@ -8554,7 +8555,7 @@
       <c r="F57" t="s">
         <v>528</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G57" s="1" t="s">
         <v>92</v>
       </c>
       <c r="H57">
@@ -8646,7 +8647,7 @@
       <c r="F58" t="s">
         <v>530</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="H58">
@@ -8738,7 +8739,7 @@
       <c r="F59" t="s">
         <v>532</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="H59">
@@ -8830,7 +8831,7 @@
       <c r="F60" t="s">
         <v>534</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G60" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H60">
@@ -8922,7 +8923,7 @@
       <c r="F61" t="s">
         <v>819</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G61" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H61">
@@ -9014,7 +9015,7 @@
       <c r="F62" t="s">
         <v>537</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G62" s="1" t="s">
         <v>47</v>
       </c>
       <c r="H62">
@@ -9106,7 +9107,7 @@
       <c r="F63" t="s">
         <v>484</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G63" s="1" t="s">
         <v>51</v>
       </c>
       <c r="H63">
@@ -9198,7 +9199,7 @@
       <c r="F64" t="s">
         <v>540</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G64" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H64">
@@ -9290,7 +9291,7 @@
       <c r="F65" t="s">
         <v>489</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G65" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H65">
@@ -9382,7 +9383,7 @@
       <c r="F66" t="s">
         <v>543</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G66" s="1" t="s">
         <v>92</v>
       </c>
       <c r="H66">
@@ -9474,7 +9475,7 @@
       <c r="F67" t="s">
         <v>494</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G67" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H67">
@@ -9566,7 +9567,7 @@
       <c r="F68" t="s">
         <v>546</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G68" s="1" t="s">
         <v>43</v>
       </c>
       <c r="H68">
@@ -9658,7 +9659,7 @@
       <c r="F69" t="s">
         <v>548</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G69" s="1" t="s">
         <v>64</v>
       </c>
       <c r="H69">
@@ -9750,7 +9751,7 @@
       <c r="F70" t="s">
         <v>550</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G70" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H70">
@@ -9842,7 +9843,7 @@
       <c r="F71" t="s">
         <v>552</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G71" s="1" t="s">
         <v>51</v>
       </c>
       <c r="H71">
@@ -9934,7 +9935,7 @@
       <c r="F72" t="s">
         <v>553</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G72" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H72">
@@ -10026,7 +10027,7 @@
       <c r="F73" t="s">
         <v>555</v>
       </c>
-      <c r="G73" t="s">
+      <c r="G73" s="1" t="s">
         <v>47</v>
       </c>
       <c r="H73">
@@ -10118,7 +10119,7 @@
       <c r="F74" t="s">
         <v>557</v>
       </c>
-      <c r="G74" t="s">
+      <c r="G74" s="1" t="s">
         <v>64</v>
       </c>
       <c r="H74">
@@ -10210,7 +10211,7 @@
       <c r="F75" t="s">
         <v>559</v>
       </c>
-      <c r="G75" t="s">
+      <c r="G75" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H75">
@@ -10302,7 +10303,7 @@
       <c r="F76" t="s">
         <v>560</v>
       </c>
-      <c r="G76" t="s">
+      <c r="G76" s="1" t="s">
         <v>92</v>
       </c>
       <c r="H76">
@@ -10394,7 +10395,7 @@
       <c r="F77" t="s">
         <v>561</v>
       </c>
-      <c r="G77" t="s">
+      <c r="G77" s="1" t="s">
         <v>43</v>
       </c>
       <c r="H77">
@@ -10486,7 +10487,7 @@
       <c r="F78" t="s">
         <v>563</v>
       </c>
-      <c r="G78" t="s">
+      <c r="G78" s="1" t="s">
         <v>43</v>
       </c>
       <c r="H78">
@@ -10578,7 +10579,7 @@
       <c r="F79" t="s">
         <v>565</v>
       </c>
-      <c r="G79" t="s">
+      <c r="G79" s="1" t="s">
         <v>99</v>
       </c>
       <c r="H79">
@@ -10670,7 +10671,7 @@
       <c r="F80" t="s">
         <v>567</v>
       </c>
-      <c r="G80" t="s">
+      <c r="G80" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H80">
@@ -10762,7 +10763,7 @@
       <c r="F81" t="s">
         <v>569</v>
       </c>
-      <c r="G81" t="s">
+      <c r="G81" s="1" t="s">
         <v>43</v>
       </c>
       <c r="H81">
@@ -10854,7 +10855,7 @@
       <c r="F82" t="s">
         <v>571</v>
       </c>
-      <c r="G82" t="s">
+      <c r="G82" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H82">
@@ -10946,7 +10947,7 @@
       <c r="F83" t="s">
         <v>573</v>
       </c>
-      <c r="G83" t="s">
+      <c r="G83" s="1" t="s">
         <v>99</v>
       </c>
       <c r="H83">
@@ -11038,7 +11039,7 @@
       <c r="F84" t="s">
         <v>574</v>
       </c>
-      <c r="G84" t="s">
+      <c r="G84" s="1" t="s">
         <v>51</v>
       </c>
       <c r="H84">
@@ -11130,7 +11131,7 @@
       <c r="F85" t="s">
         <v>429</v>
       </c>
-      <c r="G85" t="s">
+      <c r="G85" s="1" t="s">
         <v>99</v>
       </c>
       <c r="H85">
@@ -11222,7 +11223,7 @@
       <c r="F86" t="s">
         <v>577</v>
       </c>
-      <c r="G86" t="s">
+      <c r="G86" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H86">
@@ -11314,7 +11315,7 @@
       <c r="F87" t="s">
         <v>493</v>
       </c>
-      <c r="G87" t="s">
+      <c r="G87" s="1" t="s">
         <v>47</v>
       </c>
       <c r="H87">
@@ -11406,7 +11407,7 @@
       <c r="F88" t="s">
         <v>579</v>
       </c>
-      <c r="G88" t="s">
+      <c r="G88" s="1" t="s">
         <v>51</v>
       </c>
       <c r="H88">
@@ -11498,7 +11499,7 @@
       <c r="F89" t="s">
         <v>581</v>
       </c>
-      <c r="G89" t="s">
+      <c r="G89" s="1" t="s">
         <v>43</v>
       </c>
       <c r="H89">
@@ -11590,7 +11591,7 @@
       <c r="F90" t="s">
         <v>583</v>
       </c>
-      <c r="G90" t="s">
+      <c r="G90" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H90">
@@ -11682,7 +11683,7 @@
       <c r="F91" t="s">
         <v>584</v>
       </c>
-      <c r="G91" t="s">
+      <c r="G91" s="1" t="s">
         <v>99</v>
       </c>
       <c r="H91">
@@ -11774,7 +11775,7 @@
       <c r="F92" t="s">
         <v>586</v>
       </c>
-      <c r="G92" t="s">
+      <c r="G92" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H92">
@@ -11866,7 +11867,7 @@
       <c r="F93" t="s">
         <v>587</v>
       </c>
-      <c r="G93" t="s">
+      <c r="G93" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H93">
@@ -11958,7 +11959,7 @@
       <c r="F94" t="s">
         <v>589</v>
       </c>
-      <c r="G94" t="s">
+      <c r="G94" s="1" t="s">
         <v>47</v>
       </c>
       <c r="H94">
@@ -12050,7 +12051,7 @@
       <c r="F95" t="s">
         <v>591</v>
       </c>
-      <c r="G95" t="s">
+      <c r="G95" s="1" t="s">
         <v>43</v>
       </c>
       <c r="H95">
@@ -12142,7 +12143,7 @@
       <c r="F96" t="s">
         <v>593</v>
       </c>
-      <c r="G96" t="s">
+      <c r="G96" s="1" t="s">
         <v>99</v>
       </c>
       <c r="H96">
@@ -12234,7 +12235,7 @@
       <c r="F97" t="s">
         <v>595</v>
       </c>
-      <c r="G97" t="s">
+      <c r="G97" s="1" t="s">
         <v>43</v>
       </c>
       <c r="H97">
@@ -12326,7 +12327,7 @@
       <c r="F98" t="s">
         <v>574</v>
       </c>
-      <c r="G98" t="s">
+      <c r="G98" s="1" t="s">
         <v>51</v>
       </c>
       <c r="H98">
@@ -12418,7 +12419,7 @@
       <c r="F99" t="s">
         <v>597</v>
       </c>
-      <c r="G99" t="s">
+      <c r="G99" s="1" t="s">
         <v>47</v>
       </c>
       <c r="H99">
@@ -12510,7 +12511,7 @@
       <c r="F100" t="s">
         <v>820</v>
       </c>
-      <c r="G100" t="s">
+      <c r="G100" s="1" t="s">
         <v>92</v>
       </c>
       <c r="H100">
@@ -12602,7 +12603,7 @@
       <c r="F101" t="s">
         <v>599</v>
       </c>
-      <c r="G101" t="s">
+      <c r="G101" s="1" t="s">
         <v>99</v>
       </c>
       <c r="H101">
@@ -12694,7 +12695,7 @@
       <c r="F102" t="s">
         <v>601</v>
       </c>
-      <c r="G102" t="s">
+      <c r="G102" s="1" t="s">
         <v>51</v>
       </c>
       <c r="H102">
@@ -12786,7 +12787,7 @@
       <c r="F103" t="s">
         <v>603</v>
       </c>
-      <c r="G103" t="s">
+      <c r="G103" s="1" t="s">
         <v>51</v>
       </c>
       <c r="H103">
@@ -12878,7 +12879,7 @@
       <c r="F104" t="s">
         <v>574</v>
       </c>
-      <c r="G104" t="s">
+      <c r="G104" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H104">
@@ -12970,7 +12971,7 @@
       <c r="F105" t="s">
         <v>606</v>
       </c>
-      <c r="G105" t="s">
+      <c r="G105" s="1" t="s">
         <v>99</v>
       </c>
       <c r="J105">
@@ -13056,7 +13057,7 @@
       <c r="F106" t="s">
         <v>608</v>
       </c>
-      <c r="G106" t="s">
+      <c r="G106" s="1" t="s">
         <v>51</v>
       </c>
       <c r="H106">
@@ -13148,7 +13149,7 @@
       <c r="F107" t="s">
         <v>610</v>
       </c>
-      <c r="G107" t="s">
+      <c r="G107" s="1" t="s">
         <v>224</v>
       </c>
       <c r="H107">
@@ -13240,7 +13241,7 @@
       <c r="F108" t="s">
         <v>612</v>
       </c>
-      <c r="G108" t="s">
+      <c r="G108" s="1" t="s">
         <v>64</v>
       </c>
       <c r="H108">
@@ -13332,7 +13333,7 @@
       <c r="F109" t="s">
         <v>614</v>
       </c>
-      <c r="G109" t="s">
+      <c r="G109" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H109">
@@ -13424,7 +13425,7 @@
       <c r="F110" t="s">
         <v>615</v>
       </c>
-      <c r="G110" t="s">
+      <c r="G110" s="1" t="s">
         <v>99</v>
       </c>
       <c r="H110">
@@ -13516,7 +13517,7 @@
       <c r="F111" t="s">
         <v>429</v>
       </c>
-      <c r="G111" t="s">
+      <c r="G111" s="1" t="s">
         <v>43</v>
       </c>
       <c r="H111">
@@ -13608,7 +13609,7 @@
       <c r="F112" t="s">
         <v>429</v>
       </c>
-      <c r="G112" t="s">
+      <c r="G112" s="1" t="s">
         <v>99</v>
       </c>
       <c r="H112">
@@ -13700,7 +13701,7 @@
       <c r="F113" t="s">
         <v>619</v>
       </c>
-      <c r="G113" t="s">
+      <c r="G113" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H113">
@@ -13792,7 +13793,7 @@
       <c r="F114" t="s">
         <v>621</v>
       </c>
-      <c r="G114" t="s">
+      <c r="G114" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H114">
@@ -13884,7 +13885,7 @@
       <c r="F115" t="s">
         <v>338</v>
       </c>
-      <c r="G115" t="s">
+      <c r="G115" s="1" t="s">
         <v>40</v>
       </c>
       <c r="J115">
@@ -13970,7 +13971,7 @@
       <c r="F116" t="s">
         <v>623</v>
       </c>
-      <c r="G116" t="s">
+      <c r="G116" s="1" t="s">
         <v>51</v>
       </c>
       <c r="H116">
@@ -14062,7 +14063,7 @@
       <c r="F117" t="s">
         <v>625</v>
       </c>
-      <c r="G117" t="s">
+      <c r="G117" s="1" t="s">
         <v>43</v>
       </c>
       <c r="H117">
@@ -14154,7 +14155,7 @@
       <c r="F118" t="s">
         <v>237</v>
       </c>
-      <c r="G118" t="s">
+      <c r="G118" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H118">
@@ -14246,7 +14247,7 @@
       <c r="F119" t="s">
         <v>626</v>
       </c>
-      <c r="G119" t="s">
+      <c r="G119" s="1" t="s">
         <v>242</v>
       </c>
       <c r="H119">
@@ -14338,7 +14339,7 @@
       <c r="F120" t="s">
         <v>532</v>
       </c>
-      <c r="G120" t="s">
+      <c r="G120" s="1" t="s">
         <v>99</v>
       </c>
       <c r="H120">
@@ -14430,7 +14431,7 @@
       <c r="F121" t="s">
         <v>429</v>
       </c>
-      <c r="G121" t="s">
+      <c r="G121" s="1" t="s">
         <v>43</v>
       </c>
       <c r="H121">
@@ -14522,7 +14523,7 @@
       <c r="F122" t="s">
         <v>629</v>
       </c>
-      <c r="G122" t="s">
+      <c r="G122" s="1" t="s">
         <v>51</v>
       </c>
       <c r="H122">
@@ -14614,7 +14615,7 @@
       <c r="F123" t="s">
         <v>631</v>
       </c>
-      <c r="G123" t="s">
+      <c r="G123" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J123">
@@ -14700,7 +14701,7 @@
       <c r="F124" t="s">
         <v>633</v>
       </c>
-      <c r="G124" t="s">
+      <c r="G124" s="1" t="s">
         <v>64</v>
       </c>
       <c r="H124">
@@ -14792,7 +14793,7 @@
       <c r="F125" t="s">
         <v>635</v>
       </c>
-      <c r="G125" t="s">
+      <c r="G125" s="1" t="s">
         <v>64</v>
       </c>
       <c r="H125">
@@ -14884,7 +14885,7 @@
       <c r="F126" t="s">
         <v>637</v>
       </c>
-      <c r="G126" t="s">
+      <c r="G126" s="1" t="s">
         <v>99</v>
       </c>
       <c r="H126">
@@ -14976,7 +14977,7 @@
       <c r="F127" t="s">
         <v>639</v>
       </c>
-      <c r="G127" t="s">
+      <c r="G127" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H127">
@@ -15068,7 +15069,7 @@
       <c r="F128" t="s">
         <v>641</v>
       </c>
-      <c r="G128" t="s">
+      <c r="G128" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H128">
@@ -15160,7 +15161,7 @@
       <c r="F129" t="s">
         <v>443</v>
       </c>
-      <c r="G129" t="s">
+      <c r="G129" s="1" t="s">
         <v>92</v>
       </c>
       <c r="H129">
@@ -15252,7 +15253,7 @@
       <c r="F130" t="s">
         <v>644</v>
       </c>
-      <c r="G130" t="s">
+      <c r="G130" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H130">
@@ -15344,7 +15345,7 @@
       <c r="F131" t="s">
         <v>646</v>
       </c>
-      <c r="G131" t="s">
+      <c r="G131" s="1" t="s">
         <v>99</v>
       </c>
       <c r="H131">
@@ -15436,7 +15437,7 @@
       <c r="F132" t="s">
         <v>647</v>
       </c>
-      <c r="G132" t="s">
+      <c r="G132" s="1" t="s">
         <v>92</v>
       </c>
       <c r="H132">
@@ -15528,7 +15529,7 @@
       <c r="F133" t="s">
         <v>597</v>
       </c>
-      <c r="G133" t="s">
+      <c r="G133" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H133">
@@ -15620,7 +15621,7 @@
       <c r="F134" t="s">
         <v>649</v>
       </c>
-      <c r="G134" t="s">
+      <c r="G134" s="1" t="s">
         <v>64</v>
       </c>
       <c r="H134">
@@ -15712,7 +15713,7 @@
       <c r="F135" t="s">
         <v>429</v>
       </c>
-      <c r="G135" t="s">
+      <c r="G135" s="1" t="s">
         <v>64</v>
       </c>
       <c r="H135">
@@ -15804,7 +15805,7 @@
       <c r="F136" t="s">
         <v>651</v>
       </c>
-      <c r="G136" t="s">
+      <c r="G136" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H136">
@@ -15896,7 +15897,7 @@
       <c r="F137" t="s">
         <v>822</v>
       </c>
-      <c r="G137" t="s">
+      <c r="G137" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H137">
@@ -15988,7 +15989,7 @@
       <c r="F138" t="s">
         <v>653</v>
       </c>
-      <c r="G138" t="s">
+      <c r="G138" s="1" t="s">
         <v>43</v>
       </c>
       <c r="H138">
@@ -16080,7 +16081,7 @@
       <c r="F139" t="s">
         <v>655</v>
       </c>
-      <c r="G139" t="s">
+      <c r="G139" s="1" t="s">
         <v>51</v>
       </c>
       <c r="H139">
@@ -16172,7 +16173,7 @@
       <c r="F140" t="s">
         <v>657</v>
       </c>
-      <c r="G140" t="s">
+      <c r="G140" s="1" t="s">
         <v>92</v>
       </c>
       <c r="H140">
@@ -16264,7 +16265,7 @@
       <c r="F141" t="s">
         <v>659</v>
       </c>
-      <c r="G141" t="s">
+      <c r="G141" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H141">
@@ -16356,7 +16357,7 @@
       <c r="F142" t="s">
         <v>661</v>
       </c>
-      <c r="G142" t="s">
+      <c r="G142" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H142">
@@ -16448,7 +16449,7 @@
       <c r="F143" t="s">
         <v>662</v>
       </c>
-      <c r="G143" t="s">
+      <c r="G143" s="1" t="s">
         <v>43</v>
       </c>
       <c r="H143">
@@ -16540,7 +16541,7 @@
       <c r="F144" t="s">
         <v>583</v>
       </c>
-      <c r="G144" t="s">
+      <c r="G144" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H144">
@@ -16632,7 +16633,7 @@
       <c r="F145" t="s">
         <v>664</v>
       </c>
-      <c r="G145" t="s">
+      <c r="G145" s="1" t="s">
         <v>99</v>
       </c>
       <c r="H145">
@@ -16724,7 +16725,7 @@
       <c r="F146" t="s">
         <v>666</v>
       </c>
-      <c r="G146" t="s">
+      <c r="G146" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H146">
@@ -16816,7 +16817,7 @@
       <c r="F147" t="s">
         <v>668</v>
       </c>
-      <c r="G147" t="s">
+      <c r="G147" s="1" t="s">
         <v>51</v>
       </c>
       <c r="H147">
@@ -16908,7 +16909,7 @@
       <c r="F148" t="s">
         <v>669</v>
       </c>
-      <c r="G148" t="s">
+      <c r="G148" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J148">
@@ -16994,7 +16995,7 @@
       <c r="F149" t="s">
         <v>671</v>
       </c>
-      <c r="G149" t="s">
+      <c r="G149" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H149">
@@ -17086,7 +17087,7 @@
       <c r="F150" t="s">
         <v>672</v>
       </c>
-      <c r="G150" t="s">
+      <c r="G150" s="1" t="s">
         <v>51</v>
       </c>
       <c r="H150">
@@ -17178,7 +17179,7 @@
       <c r="F151" t="s">
         <v>673</v>
       </c>
-      <c r="G151" t="s">
+      <c r="G151" s="1" t="s">
         <v>47</v>
       </c>
       <c r="H151">
@@ -17270,7 +17271,7 @@
       <c r="F152" t="s">
         <v>674</v>
       </c>
-      <c r="G152" t="s">
+      <c r="G152" s="1" t="s">
         <v>43</v>
       </c>
       <c r="H152">
@@ -17362,7 +17363,7 @@
       <c r="F153" t="s">
         <v>676</v>
       </c>
-      <c r="G153" t="s">
+      <c r="G153" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J153">
@@ -17448,7 +17449,7 @@
       <c r="F154" t="s">
         <v>677</v>
       </c>
-      <c r="G154" t="s">
+      <c r="G154" s="1" t="s">
         <v>286</v>
       </c>
       <c r="H154">
@@ -17540,7 +17541,7 @@
       <c r="F155" t="s">
         <v>678</v>
       </c>
-      <c r="G155" t="s">
+      <c r="G155" s="1" t="s">
         <v>51</v>
       </c>
       <c r="H155">
@@ -17632,7 +17633,7 @@
       <c r="F156" t="s">
         <v>680</v>
       </c>
-      <c r="G156" t="s">
+      <c r="G156" s="1" t="s">
         <v>47</v>
       </c>
       <c r="H156">
@@ -17724,7 +17725,7 @@
       <c r="F157" t="s">
         <v>682</v>
       </c>
-      <c r="G157" t="s">
+      <c r="G157" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H157">
@@ -17816,7 +17817,7 @@
       <c r="F158" t="s">
         <v>683</v>
       </c>
-      <c r="G158" t="s">
+      <c r="G158" s="1" t="s">
         <v>43</v>
       </c>
       <c r="H158">
@@ -17908,7 +17909,7 @@
       <c r="F159" t="s">
         <v>684</v>
       </c>
-      <c r="G159" t="s">
+      <c r="G159" s="1" t="s">
         <v>51</v>
       </c>
       <c r="H159">
@@ -18000,7 +18001,7 @@
       <c r="F160" t="s">
         <v>581</v>
       </c>
-      <c r="G160" t="s">
+      <c r="G160" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H160">
@@ -18092,7 +18093,7 @@
       <c r="F161" t="s">
         <v>687</v>
       </c>
-      <c r="G161" t="s">
+      <c r="G161" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H161">
@@ -18184,7 +18185,7 @@
       <c r="F162" t="s">
         <v>688</v>
       </c>
-      <c r="G162" t="s">
+      <c r="G162" s="1" t="s">
         <v>92</v>
       </c>
       <c r="H162">
@@ -18276,7 +18277,7 @@
       <c r="F163" t="s">
         <v>689</v>
       </c>
-      <c r="G163" t="s">
+      <c r="G163" s="1" t="s">
         <v>92</v>
       </c>
       <c r="H163">
@@ -18368,7 +18369,7 @@
       <c r="F164" t="s">
         <v>690</v>
       </c>
-      <c r="G164" t="s">
+      <c r="G164" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H164">
@@ -18460,7 +18461,7 @@
       <c r="F165" t="s">
         <v>692</v>
       </c>
-      <c r="G165" t="s">
+      <c r="G165" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J165">
@@ -18546,7 +18547,7 @@
       <c r="F166" t="s">
         <v>693</v>
       </c>
-      <c r="G166" t="s">
+      <c r="G166" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H166">
@@ -18638,7 +18639,7 @@
       <c r="F167" t="s">
         <v>694</v>
       </c>
-      <c r="G167" t="s">
+      <c r="G167" s="1" t="s">
         <v>47</v>
       </c>
       <c r="H167">
@@ -18730,7 +18731,7 @@
       <c r="F168" t="s">
         <v>437</v>
       </c>
-      <c r="G168" t="s">
+      <c r="G168" s="1" t="s">
         <v>47</v>
       </c>
       <c r="J168">
@@ -18816,7 +18817,7 @@
       <c r="F169" t="s">
         <v>695</v>
       </c>
-      <c r="G169" t="s">
+      <c r="G169" s="1" t="s">
         <v>43</v>
       </c>
       <c r="H169">
@@ -18908,7 +18909,7 @@
       <c r="F170" t="s">
         <v>697</v>
       </c>
-      <c r="G170" t="s">
+      <c r="G170" s="1" t="s">
         <v>64</v>
       </c>
       <c r="H170">
@@ -19000,7 +19001,7 @@
       <c r="F171" t="s">
         <v>699</v>
       </c>
-      <c r="G171" t="s">
+      <c r="G171" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H171">
@@ -19092,7 +19093,7 @@
       <c r="F172" t="s">
         <v>701</v>
       </c>
-      <c r="G172" t="s">
+      <c r="G172" s="1" t="s">
         <v>99</v>
       </c>
       <c r="H172">
@@ -19184,7 +19185,7 @@
       <c r="F173" t="s">
         <v>702</v>
       </c>
-      <c r="G173" t="s">
+      <c r="G173" s="1" t="s">
         <v>99</v>
       </c>
       <c r="J173">
@@ -19270,7 +19271,7 @@
       <c r="F174" t="s">
         <v>704</v>
       </c>
-      <c r="G174" t="s">
+      <c r="G174" s="1" t="s">
         <v>51</v>
       </c>
       <c r="H174">
@@ -19362,7 +19363,7 @@
       <c r="F175" t="s">
         <v>706</v>
       </c>
-      <c r="G175" t="s">
+      <c r="G175" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J175">
@@ -19448,7 +19449,7 @@
       <c r="F176" t="s">
         <v>708</v>
       </c>
-      <c r="G176" t="s">
+      <c r="G176" s="1" t="s">
         <v>99</v>
       </c>
       <c r="H176">
@@ -19540,7 +19541,7 @@
       <c r="F177" t="s">
         <v>710</v>
       </c>
-      <c r="G177" t="s">
+      <c r="G177" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H177">
@@ -19632,7 +19633,7 @@
       <c r="F178" t="s">
         <v>479</v>
       </c>
-      <c r="G178" t="s">
+      <c r="G178" s="1" t="s">
         <v>64</v>
       </c>
       <c r="H178">
@@ -19724,7 +19725,7 @@
       <c r="F179" t="s">
         <v>712</v>
       </c>
-      <c r="G179" t="s">
+      <c r="G179" s="1" t="s">
         <v>43</v>
       </c>
       <c r="H179">
@@ -19816,7 +19817,7 @@
       <c r="F180" t="s">
         <v>714</v>
       </c>
-      <c r="G180" t="s">
+      <c r="G180" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J180">
@@ -19902,7 +19903,7 @@
       <c r="F181" t="s">
         <v>716</v>
       </c>
-      <c r="G181" t="s">
+      <c r="G181" s="1" t="s">
         <v>224</v>
       </c>
       <c r="H181">
@@ -19994,7 +19995,7 @@
       <c r="F182" t="s">
         <v>718</v>
       </c>
-      <c r="G182" t="s">
+      <c r="G182" s="1" t="s">
         <v>64</v>
       </c>
       <c r="H182">
@@ -20086,7 +20087,7 @@
       <c r="F183" t="s">
         <v>720</v>
       </c>
-      <c r="G183" t="s">
+      <c r="G183" s="1" t="s">
         <v>64</v>
       </c>
       <c r="H183">
@@ -20178,7 +20179,7 @@
       <c r="F184" t="s">
         <v>722</v>
       </c>
-      <c r="G184" t="s">
+      <c r="G184" s="1" t="s">
         <v>64</v>
       </c>
       <c r="H184">
@@ -20270,7 +20271,7 @@
       <c r="F185" t="s">
         <v>484</v>
       </c>
-      <c r="G185" t="s">
+      <c r="G185" s="1" t="s">
         <v>99</v>
       </c>
       <c r="H185">
@@ -20362,7 +20363,7 @@
       <c r="F186" t="s">
         <v>725</v>
       </c>
-      <c r="G186" t="s">
+      <c r="G186" s="1" t="s">
         <v>51</v>
       </c>
       <c r="H186">
@@ -20454,7 +20455,7 @@
       <c r="F187" t="s">
         <v>727</v>
       </c>
-      <c r="G187" t="s">
+      <c r="G187" s="1" t="s">
         <v>92</v>
       </c>
       <c r="H187">
@@ -20546,7 +20547,7 @@
       <c r="F188" t="s">
         <v>729</v>
       </c>
-      <c r="G188" t="s">
+      <c r="G188" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H188">
@@ -20638,7 +20639,7 @@
       <c r="F189" t="s">
         <v>574</v>
       </c>
-      <c r="G189" t="s">
+      <c r="G189" s="1" t="s">
         <v>242</v>
       </c>
       <c r="J189">
@@ -20724,7 +20725,7 @@
       <c r="F190" t="s">
         <v>732</v>
       </c>
-      <c r="G190" t="s">
+      <c r="G190" s="1" t="s">
         <v>51</v>
       </c>
       <c r="H190">
@@ -20816,7 +20817,7 @@
       <c r="F191" t="s">
         <v>733</v>
       </c>
-      <c r="G191" t="s">
+      <c r="G191" s="1" t="s">
         <v>99</v>
       </c>
       <c r="H191">
@@ -20908,7 +20909,7 @@
       <c r="F192" t="s">
         <v>734</v>
       </c>
-      <c r="G192" t="s">
+      <c r="G192" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H192">
@@ -21000,7 +21001,7 @@
       <c r="F193" t="s">
         <v>735</v>
       </c>
-      <c r="G193" t="s">
+      <c r="G193" s="1" t="s">
         <v>51</v>
       </c>
       <c r="H193">
@@ -21092,7 +21093,7 @@
       <c r="F194" t="s">
         <v>736</v>
       </c>
-      <c r="G194" t="s">
+      <c r="G194" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H194">
@@ -21184,7 +21185,7 @@
       <c r="F195" t="s">
         <v>738</v>
       </c>
-      <c r="G195" t="s">
+      <c r="G195" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H195">
@@ -21276,7 +21277,7 @@
       <c r="F196" t="s">
         <v>739</v>
       </c>
-      <c r="G196" t="s">
+      <c r="G196" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H196">
@@ -21368,7 +21369,7 @@
       <c r="F197" t="s">
         <v>741</v>
       </c>
-      <c r="G197" t="s">
+      <c r="G197" s="1" t="s">
         <v>64</v>
       </c>
       <c r="H197">
@@ -21460,7 +21461,7 @@
       <c r="F198" t="s">
         <v>743</v>
       </c>
-      <c r="G198" t="s">
+      <c r="G198" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H198">
@@ -21552,7 +21553,7 @@
       <c r="F199" t="s">
         <v>744</v>
       </c>
-      <c r="G199" t="s">
+      <c r="G199" s="1" t="s">
         <v>108</v>
       </c>
       <c r="J199">
@@ -21638,7 +21639,7 @@
       <c r="F200" t="s">
         <v>662</v>
       </c>
-      <c r="G200" t="s">
+      <c r="G200" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H200">
@@ -21730,7 +21731,7 @@
       <c r="F201" t="s">
         <v>703</v>
       </c>
-      <c r="G201" t="s">
+      <c r="G201" s="1" t="s">
         <v>92</v>
       </c>
       <c r="J201">
@@ -21816,7 +21817,7 @@
       <c r="F202" t="s">
         <v>747</v>
       </c>
-      <c r="G202" t="s">
+      <c r="G202" s="1" t="s">
         <v>108</v>
       </c>
       <c r="J202">
@@ -21902,7 +21903,7 @@
       <c r="F203" t="s">
         <v>429</v>
       </c>
-      <c r="G203" t="s">
+      <c r="G203" s="1" t="s">
         <v>47</v>
       </c>
       <c r="J203">
@@ -21988,7 +21989,7 @@
       <c r="F204" t="s">
         <v>749</v>
       </c>
-      <c r="G204" t="s">
+      <c r="G204" s="1" t="s">
         <v>347</v>
       </c>
       <c r="H204">
@@ -22080,7 +22081,7 @@
       <c r="F205" t="s">
         <v>751</v>
       </c>
-      <c r="G205" t="s">
+      <c r="G205" s="1" t="s">
         <v>64</v>
       </c>
       <c r="H205">
@@ -22172,7 +22173,7 @@
       <c r="F206" t="s">
         <v>753</v>
       </c>
-      <c r="G206" t="s">
+      <c r="G206" s="1" t="s">
         <v>92</v>
       </c>
       <c r="J206">
@@ -22258,7 +22259,7 @@
       <c r="F207" t="s">
         <v>709</v>
       </c>
-      <c r="G207" t="s">
+      <c r="G207" s="1" t="s">
         <v>64</v>
       </c>
       <c r="H207">
@@ -22350,7 +22351,7 @@
       <c r="F208" t="s">
         <v>756</v>
       </c>
-      <c r="G208" t="s">
+      <c r="G208" s="1" t="s">
         <v>51</v>
       </c>
       <c r="H208">
@@ -22442,7 +22443,7 @@
       <c r="F209" t="s">
         <v>671</v>
       </c>
-      <c r="G209" t="s">
+      <c r="G209" s="1" t="s">
         <v>51</v>
       </c>
       <c r="H209">
@@ -22534,7 +22535,7 @@
       <c r="F210" t="s">
         <v>759</v>
       </c>
-      <c r="G210" t="s">
+      <c r="G210" s="1" t="s">
         <v>99</v>
       </c>
       <c r="H210">
@@ -22626,7 +22627,7 @@
       <c r="F211" t="s">
         <v>761</v>
       </c>
-      <c r="G211" t="s">
+      <c r="G211" s="1" t="s">
         <v>92</v>
       </c>
       <c r="H211">
@@ -22718,7 +22719,7 @@
       <c r="F212" t="s">
         <v>550</v>
       </c>
-      <c r="G212" t="s">
+      <c r="G212" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H212">
@@ -22810,7 +22811,7 @@
       <c r="F213" t="s">
         <v>614</v>
       </c>
-      <c r="G213" t="s">
+      <c r="G213" s="1" t="s">
         <v>64</v>
       </c>
       <c r="H213">
@@ -22902,7 +22903,7 @@
       <c r="F214" t="s">
         <v>763</v>
       </c>
-      <c r="G214" t="s">
+      <c r="G214" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H214">
@@ -22994,7 +22995,7 @@
       <c r="F215" t="s">
         <v>764</v>
       </c>
-      <c r="G215" t="s">
+      <c r="G215" s="1" t="s">
         <v>108</v>
       </c>
       <c r="H215">
@@ -23086,7 +23087,7 @@
       <c r="F216" t="s">
         <v>766</v>
       </c>
-      <c r="G216" t="s">
+      <c r="G216" s="1" t="s">
         <v>51</v>
       </c>
       <c r="H216">
@@ -23178,7 +23179,7 @@
       <c r="F217" t="s">
         <v>768</v>
       </c>
-      <c r="G217" t="s">
+      <c r="G217" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H217">
@@ -23270,7 +23271,7 @@
       <c r="F218" t="s">
         <v>769</v>
       </c>
-      <c r="G218" t="s">
+      <c r="G218" s="1" t="s">
         <v>92</v>
       </c>
       <c r="J218">
@@ -23356,7 +23357,7 @@
       <c r="F219" t="s">
         <v>655</v>
       </c>
-      <c r="G219" t="s">
+      <c r="G219" s="1" t="s">
         <v>99</v>
       </c>
       <c r="H219">
@@ -23448,7 +23449,7 @@
       <c r="F220" t="s">
         <v>771</v>
       </c>
-      <c r="G220" t="s">
+      <c r="G220" s="1" t="s">
         <v>43</v>
       </c>
       <c r="H220">
@@ -23540,7 +23541,7 @@
       <c r="F221" t="s">
         <v>773</v>
       </c>
-      <c r="G221" t="s">
+      <c r="G221" s="1" t="s">
         <v>64</v>
       </c>
       <c r="H221">
@@ -23632,7 +23633,7 @@
       <c r="F222" t="s">
         <v>774</v>
       </c>
-      <c r="G222" t="s">
+      <c r="G222" s="1" t="s">
         <v>43</v>
       </c>
       <c r="H222">
@@ -23724,7 +23725,7 @@
       <c r="F223" t="s">
         <v>776</v>
       </c>
-      <c r="G223" t="s">
+      <c r="G223" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H223">
@@ -23816,7 +23817,7 @@
       <c r="F224" t="s">
         <v>777</v>
       </c>
-      <c r="G224" t="s">
+      <c r="G224" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J224">
@@ -23902,7 +23903,7 @@
       <c r="F225" t="s">
         <v>778</v>
       </c>
-      <c r="G225" t="s">
+      <c r="G225" s="1" t="s">
         <v>108</v>
       </c>
       <c r="J225">
@@ -23988,7 +23989,7 @@
       <c r="F226" t="s">
         <v>780</v>
       </c>
-      <c r="G226" t="s">
+      <c r="G226" s="1" t="s">
         <v>64</v>
       </c>
       <c r="H226">
@@ -24080,7 +24081,7 @@
       <c r="F227" t="s">
         <v>782</v>
       </c>
-      <c r="G227" t="s">
+      <c r="G227" s="1" t="s">
         <v>64</v>
       </c>
       <c r="H227">
@@ -24172,7 +24173,7 @@
       <c r="F228" t="s">
         <v>671</v>
       </c>
-      <c r="G228" t="s">
+      <c r="G228" s="1" t="s">
         <v>108</v>
       </c>
       <c r="J228">
@@ -24258,7 +24259,7 @@
       <c r="F229" t="s">
         <v>780</v>
       </c>
-      <c r="G229" t="s">
+      <c r="G229" s="1" t="s">
         <v>51</v>
       </c>
       <c r="H229">
@@ -24350,7 +24351,7 @@
       <c r="F230" t="s">
         <v>784</v>
       </c>
-      <c r="G230" t="s">
+      <c r="G230" s="1" t="s">
         <v>51</v>
       </c>
       <c r="H230">
@@ -24442,7 +24443,7 @@
       <c r="F231" t="s">
         <v>786</v>
       </c>
-      <c r="G231" t="s">
+      <c r="G231" s="1" t="s">
         <v>92</v>
       </c>
       <c r="J231">
@@ -24528,7 +24529,7 @@
       <c r="F232" t="s">
         <v>788</v>
       </c>
-      <c r="G232" t="s">
+      <c r="G232" s="1" t="s">
         <v>99</v>
       </c>
       <c r="J232">
@@ -24614,7 +24615,7 @@
       <c r="F233" t="s">
         <v>790</v>
       </c>
-      <c r="G233" t="s">
+      <c r="G233" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J233">
@@ -24700,7 +24701,7 @@
       <c r="F234" t="s">
         <v>791</v>
       </c>
-      <c r="G234" t="s">
+      <c r="G234" s="1" t="s">
         <v>99</v>
       </c>
       <c r="H234">
@@ -24792,7 +24793,7 @@
       <c r="F235" t="s">
         <v>677</v>
       </c>
-      <c r="G235" t="s">
+      <c r="G235" s="1" t="s">
         <v>92</v>
       </c>
       <c r="H235">
@@ -24884,7 +24885,7 @@
       <c r="F236" t="s">
         <v>792</v>
       </c>
-      <c r="G236" t="s">
+      <c r="G236" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J236">
@@ -24970,7 +24971,7 @@
       <c r="F237" t="s">
         <v>733</v>
       </c>
-      <c r="G237" t="s">
+      <c r="G237" s="1" t="s">
         <v>51</v>
       </c>
       <c r="H237">
@@ -25062,7 +25063,7 @@
       <c r="F238" t="s">
         <v>793</v>
       </c>
-      <c r="G238" t="s">
+      <c r="G238" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H238">
@@ -25154,7 +25155,7 @@
       <c r="F239" t="s">
         <v>794</v>
       </c>
-      <c r="G239" t="s">
+      <c r="G239" s="1" t="s">
         <v>51</v>
       </c>
       <c r="H239">
@@ -25246,7 +25247,7 @@
       <c r="F240" t="s">
         <v>795</v>
       </c>
-      <c r="G240" t="s">
+      <c r="G240" s="1" t="s">
         <v>347</v>
       </c>
       <c r="H240">
@@ -25338,7 +25339,7 @@
       <c r="F241" t="s">
         <v>796</v>
       </c>
-      <c r="G241" t="s">
+      <c r="G241" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J241">
@@ -25424,7 +25425,7 @@
       <c r="F242" t="s">
         <v>797</v>
       </c>
-      <c r="G242" t="s">
+      <c r="G242" s="1" t="s">
         <v>43</v>
       </c>
       <c r="H242">
@@ -25516,7 +25517,7 @@
       <c r="F243" t="s">
         <v>798</v>
       </c>
-      <c r="G243" t="s">
+      <c r="G243" s="1" t="s">
         <v>92</v>
       </c>
       <c r="H243">
@@ -25608,7 +25609,7 @@
       <c r="F244" t="s">
         <v>799</v>
       </c>
-      <c r="G244" t="s">
+      <c r="G244" s="1" t="s">
         <v>92</v>
       </c>
       <c r="H244">
@@ -25700,7 +25701,7 @@
       <c r="F245" t="s">
         <v>800</v>
       </c>
-      <c r="G245" t="s">
+      <c r="G245" s="1" t="s">
         <v>47</v>
       </c>
       <c r="H245">
@@ -25792,7 +25793,7 @@
       <c r="F246" t="s">
         <v>801</v>
       </c>
-      <c r="G246" t="s">
+      <c r="G246" s="1" t="s">
         <v>43</v>
       </c>
       <c r="H246">
@@ -25884,7 +25885,7 @@
       <c r="F247" t="s">
         <v>803</v>
       </c>
-      <c r="G247" t="s">
+      <c r="G247" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H247">
@@ -25976,7 +25977,7 @@
       <c r="F248" t="s">
         <v>804</v>
       </c>
-      <c r="G248" t="s">
+      <c r="G248" s="1" t="s">
         <v>43</v>
       </c>
       <c r="H248">
@@ -26068,7 +26069,7 @@
       <c r="F249" t="s">
         <v>806</v>
       </c>
-      <c r="G249" t="s">
+      <c r="G249" s="1" t="s">
         <v>92</v>
       </c>
       <c r="H249">
@@ -26160,7 +26161,7 @@
       <c r="F250" t="s">
         <v>808</v>
       </c>
-      <c r="G250" t="s">
+      <c r="G250" s="1" t="s">
         <v>99</v>
       </c>
       <c r="H250">
@@ -26252,7 +26253,7 @@
       <c r="F251" t="s">
         <v>809</v>
       </c>
-      <c r="G251" t="s">
+      <c r="G251" s="1" t="s">
         <v>43</v>
       </c>
       <c r="J251">
@@ -26338,7 +26339,7 @@
       <c r="F252" t="s">
         <v>581</v>
       </c>
-      <c r="G252" t="s">
+      <c r="G252" s="1" t="s">
         <v>99</v>
       </c>
       <c r="H252">
@@ -26430,7 +26431,7 @@
       <c r="F253" t="s">
         <v>810</v>
       </c>
-      <c r="G253" t="s">
+      <c r="G253" s="1" t="s">
         <v>99</v>
       </c>
       <c r="H253">
@@ -26522,7 +26523,7 @@
       <c r="F254" t="s">
         <v>812</v>
       </c>
-      <c r="G254" t="s">
+      <c r="G254" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H254">
@@ -26614,7 +26615,7 @@
       <c r="F255" t="s">
         <v>814</v>
       </c>
-      <c r="G255" t="s">
+      <c r="G255" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J255">
@@ -26700,7 +26701,7 @@
       <c r="F256" t="s">
         <v>815</v>
       </c>
-      <c r="G256" t="s">
+      <c r="G256" s="1" t="s">
         <v>99</v>
       </c>
       <c r="J256">
